--- a/Test/Results/MSEM/MSEMBO.xlsx
+++ b/Test/Results/MSEM/MSEMBO.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.006155127889059664</v>
+        <v>0.006256893957653871</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01811216550109282</v>
+        <v>0.005309317654299693</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01095169343303206</v>
+        <v>0.01030692385743398</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02718014192666963</v>
+        <v>0.003483671026348091</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03397421794831412</v>
+        <v>0.01157522247938674</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.007879406497121587</v>
+        <v>0.003525692830550248</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0205294338693056</v>
+        <v>0.01275287477126014</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.02469269928457209</v>
+        <v>0.007226474473854392</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.002652949622048331</v>
+        <v>0.002930364050245574</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.004339613231363212</v>
+        <v>0.006182146501383273</v>
       </c>
     </row>
   </sheetData>
